--- a/StructureDefinition-profile-Linkage.xlsx
+++ b/StructureDefinition-profile-Linkage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7227612-06:00</t>
+    <t>2026-02-09T22:05:43.1830594-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-profile-Linkage.xlsx
+++ b/StructureDefinition-profile-Linkage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="193">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1830594-06:00</t>
+    <t>2026-02-17T14:42:26.8361834-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -536,10 +536,40 @@
     <t>Linkage.item.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Linkage.item.extension:item</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Linkage.item|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Linkage.item from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Linkage.item` has is mapped to FHIR R4 element `Linkage.item`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Linkage.item.modifierExtension</t>
@@ -894,7 +924,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AL19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -913,7 +943,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.55859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.33203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2469,11 +2499,11 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -2491,14 +2521,12 @@
         <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -2535,19 +2563,17 @@
         <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2562,7 +2588,7 @@
         <v>135</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -2570,18 +2596,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="D16" t="s" s="2">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
@@ -2590,26 +2618,24 @@
         <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
       </c>
@@ -2657,7 +2683,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2666,13 +2692,13 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -2680,42 +2706,46 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
@@ -2739,13 +2769,13 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -2763,22 +2793,22 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -2786,10 +2816,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2812,13 +2842,13 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2845,13 +2875,13 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -2869,7 +2899,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>84</v>
@@ -2887,6 +2917,112 @@
         <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Linkage.xlsx
+++ b/StructureDefinition-profile-Linkage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8361834-06:00</t>
+    <t>2026-02-20T11:59:20.8605765-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Linkage|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Linkage</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -558,7 +558,7 @@
     <t>item</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Linkage.item|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Linkage.item}
 </t>
   </si>
   <si>
@@ -943,7 +943,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.33203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.91796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Linkage.xlsx
+++ b/StructureDefinition-profile-Linkage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="184">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8605765-06:00</t>
+    <t>2026-02-21T13:36:54.2636424-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Linkage</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Linkage|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -536,40 +536,10 @@
     <t>Linkage.item.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Linkage.item.extension:item</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Linkage.item}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Linkage.item from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Linkage.item` has is mapped to FHIR R4 element `Linkage.item`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Linkage.item.modifierExtension</t>
@@ -924,7 +894,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL19"/>
+  <dimension ref="A1:AL18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -943,7 +913,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.55859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2499,11 +2469,11 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -2521,12 +2491,14 @@
         <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -2563,17 +2535,19 @@
         <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AC15" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2588,7 +2562,7 @@
         <v>135</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -2596,20 +2570,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
@@ -2618,24 +2590,26 @@
         <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
       </c>
@@ -2683,7 +2657,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2692,13 +2666,13 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -2706,46 +2680,42 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
@@ -2769,13 +2739,13 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -2793,22 +2763,22 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -2816,10 +2786,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2842,13 +2812,13 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2875,13 +2845,13 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -2899,7 +2869,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>84</v>
@@ -2917,112 +2887,6 @@
         <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL19" t="s" s="2">
         <v>75</v>
       </c>
     </row>
